--- a/Budget/adwords.xlsx
+++ b/Budget/adwords.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tantonakis\Google Drive\Scripts\AnalyticsProj\cdgr_adwords\Budget\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11124"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -206,11 +213,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -222,7 +228,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -240,18 +246,297 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D295"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="A295" sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -265,7 +550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -275,11 +560,11 @@
       <c r="C2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="n">
-        <v>4906298.0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="D2">
+        <v>4906298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -289,11 +574,11 @@
       <c r="C3" t="s">
         <v>60</v>
       </c>
-      <c r="D3" t="n">
-        <v>2598924.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="D3">
+        <v>2598924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -303,11 +588,11 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
-        <v>60401.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="D4">
+        <v>60401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -317,11 +602,11 @@
       <c r="C5" t="s">
         <v>61</v>
       </c>
-      <c r="D5" t="n">
-        <v>30918.0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="D5">
+        <v>30918</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -331,11 +616,11 @@
       <c r="C6" t="s">
         <v>61</v>
       </c>
-      <c r="D6" t="n">
-        <v>6452.0</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="D6">
+        <v>6452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -345,11 +630,11 @@
       <c r="C7" t="s">
         <v>61</v>
       </c>
-      <c r="D7" t="n">
-        <v>1957.0</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="D7">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -359,11 +644,11 @@
       <c r="C8" t="s">
         <v>61</v>
       </c>
-      <c r="D8" t="n">
-        <v>2096.0</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="D8">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -373,11 +658,11 @@
       <c r="C9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" t="n">
-        <v>34877.0</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="D9">
+        <v>34877</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -387,11 +672,11 @@
       <c r="C10" t="s">
         <v>61</v>
       </c>
-      <c r="D10" t="n">
-        <v>318.0</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="D10">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -401,11 +686,11 @@
       <c r="C11" t="s">
         <v>61</v>
       </c>
-      <c r="D11" t="n">
-        <v>132231.0</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="D11">
+        <v>132231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -415,11 +700,11 @@
       <c r="C12" t="s">
         <v>61</v>
       </c>
-      <c r="D12" t="n">
-        <v>3970.0</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="D12">
+        <v>3970</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -429,11 +714,11 @@
       <c r="C13" t="s">
         <v>61</v>
       </c>
-      <c r="D13" t="n">
-        <v>1159.0</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="D13">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -443,11 +728,11 @@
       <c r="C14" t="s">
         <v>61</v>
       </c>
-      <c r="D14" t="n">
-        <v>19455.0</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="D14">
+        <v>19455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -457,11 +742,11 @@
       <c r="C15" t="s">
         <v>61</v>
       </c>
-      <c r="D15" t="n">
-        <v>8044.0</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="D15">
+        <v>8044</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -471,11 +756,11 @@
       <c r="C16" t="s">
         <v>61</v>
       </c>
-      <c r="D16" t="n">
-        <v>6872.0</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="D16">
+        <v>6872</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -485,11 +770,11 @@
       <c r="C17" t="s">
         <v>61</v>
       </c>
-      <c r="D17" t="n">
-        <v>2881.0</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="D17">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -499,11 +784,11 @@
       <c r="C18" t="s">
         <v>61</v>
       </c>
-      <c r="D18" t="n">
-        <v>5633.0</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="D18">
+        <v>5633</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -513,11 +798,11 @@
       <c r="C19" t="s">
         <v>61</v>
       </c>
-      <c r="D19" t="n">
-        <v>38771.0</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="D19">
+        <v>38771</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -527,11 +812,11 @@
       <c r="C20" t="s">
         <v>61</v>
       </c>
-      <c r="D20" t="n">
-        <v>2831.0</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="D20">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -541,11 +826,11 @@
       <c r="C21" t="s">
         <v>61</v>
       </c>
-      <c r="D21" t="n">
-        <v>2694.0</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="D21">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -555,11 +840,11 @@
       <c r="C22" t="s">
         <v>61</v>
       </c>
-      <c r="D22" t="n">
-        <v>7797.0</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="D22">
+        <v>7797</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -569,11 +854,11 @@
       <c r="C23" t="s">
         <v>61</v>
       </c>
-      <c r="D23" t="n">
-        <v>36658.0</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="D23">
+        <v>36658</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -583,11 +868,11 @@
       <c r="C24" t="s">
         <v>61</v>
       </c>
-      <c r="D24" t="n">
-        <v>9020.0</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="D24">
+        <v>9020</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -597,11 +882,11 @@
       <c r="C25" t="s">
         <v>61</v>
       </c>
-      <c r="D25" t="n">
-        <v>1418.0</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="D25">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -611,11 +896,11 @@
       <c r="C26" t="s">
         <v>61</v>
       </c>
-      <c r="D26" t="n">
-        <v>873.0</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="D26">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -625,11 +910,11 @@
       <c r="C27" t="s">
         <v>61</v>
       </c>
-      <c r="D27" t="n">
-        <v>585.0</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="D27">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -639,11 +924,11 @@
       <c r="C28" t="s">
         <v>61</v>
       </c>
-      <c r="D28" t="n">
-        <v>70343.0</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="D28">
+        <v>70343</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -653,11 +938,11 @@
       <c r="C29" t="s">
         <v>61</v>
       </c>
-      <c r="D29" t="n">
-        <v>3146.0</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="D29">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -667,11 +952,11 @@
       <c r="C30" t="s">
         <v>61</v>
       </c>
-      <c r="D30" t="n">
-        <v>169615.0</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="D30">
+        <v>169615</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -681,11 +966,11 @@
       <c r="C31" t="s">
         <v>61</v>
       </c>
-      <c r="D31" t="n">
-        <v>3467.0</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="D31">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -695,11 +980,11 @@
       <c r="C32" t="s">
         <v>61</v>
       </c>
-      <c r="D32" t="n">
-        <v>11888.0</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="D32">
+        <v>11888</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -709,11 +994,11 @@
       <c r="C33" t="s">
         <v>61</v>
       </c>
-      <c r="D33" t="n">
-        <v>12340.0</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="D33">
+        <v>12340</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -723,11 +1008,11 @@
       <c r="C34" t="s">
         <v>61</v>
       </c>
-      <c r="D34" t="n">
-        <v>4024.0</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="D34">
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -737,11 +1022,11 @@
       <c r="C35" t="s">
         <v>61</v>
       </c>
-      <c r="D35" t="n">
-        <v>3254.0</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="D35">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -751,11 +1036,11 @@
       <c r="C36" t="s">
         <v>61</v>
       </c>
-      <c r="D36" t="n">
-        <v>4587.0</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="D36">
+        <v>4587</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -765,11 +1050,11 @@
       <c r="C37" t="s">
         <v>61</v>
       </c>
-      <c r="D37" t="n">
-        <v>2797.0</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="D37">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -779,11 +1064,11 @@
       <c r="C38" t="s">
         <v>61</v>
       </c>
-      <c r="D38" t="n">
-        <v>14351.0</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="D38">
+        <v>14351</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -793,11 +1078,11 @@
       <c r="C39" t="s">
         <v>61</v>
       </c>
-      <c r="D39" t="n">
-        <v>18472.0</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="D39">
+        <v>18472</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -807,11 +1092,11 @@
       <c r="C40" t="s">
         <v>61</v>
       </c>
-      <c r="D40" t="n">
-        <v>4764.0</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="D40">
+        <v>4764</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -821,11 +1106,11 @@
       <c r="C41" t="s">
         <v>61</v>
       </c>
-      <c r="D41" t="n">
-        <v>50783.0</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="D41">
+        <v>50783</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -835,11 +1120,11 @@
       <c r="C42" t="s">
         <v>61</v>
       </c>
-      <c r="D42" t="n">
-        <v>9166.0</v>
-      </c>
-    </row>
-    <row r="43">
+      <c r="D42">
+        <v>9166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -849,11 +1134,11 @@
       <c r="C43" t="s">
         <v>61</v>
       </c>
-      <c r="D43" t="n">
-        <v>1776.0</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="D43">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -863,11 +1148,11 @@
       <c r="C44" t="s">
         <v>61</v>
       </c>
-      <c r="D44" t="n">
-        <v>10342.0</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="D44">
+        <v>10342</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -877,11 +1162,11 @@
       <c r="C45" t="s">
         <v>61</v>
       </c>
-      <c r="D45" t="n">
-        <v>104193.0</v>
-      </c>
-    </row>
-    <row r="46">
+      <c r="D45">
+        <v>104193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -891,11 +1176,11 @@
       <c r="C46" t="s">
         <v>61</v>
       </c>
-      <c r="D46" t="n">
-        <v>135820.0</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="D46">
+        <v>135820</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -905,11 +1190,11 @@
       <c r="C47" t="s">
         <v>62</v>
       </c>
-      <c r="D47" t="n">
-        <v>785985.0</v>
-      </c>
-    </row>
-    <row r="48">
+      <c r="D47">
+        <v>785985</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -919,11 +1204,11 @@
       <c r="C48" t="s">
         <v>62</v>
       </c>
-      <c r="D48" t="n">
-        <v>541211.0</v>
-      </c>
-    </row>
-    <row r="49">
+      <c r="D48">
+        <v>541211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -933,11 +1218,11 @@
       <c r="C49" t="s">
         <v>62</v>
       </c>
-      <c r="D49" t="n">
-        <v>877296.0</v>
-      </c>
-    </row>
-    <row r="50">
+      <c r="D49">
+        <v>877296</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -947,11 +1232,11 @@
       <c r="C50" t="s">
         <v>62</v>
       </c>
-      <c r="D50" t="n">
-        <v>3454004.0</v>
-      </c>
-    </row>
-    <row r="51">
+      <c r="D50">
+        <v>3454004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -961,11 +1246,11 @@
       <c r="C51" t="s">
         <v>59</v>
       </c>
-      <c r="D51" t="n">
-        <v>33559.0</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="D51">
+        <v>33559</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -975,11 +1260,11 @@
       <c r="C52" t="s">
         <v>60</v>
       </c>
-      <c r="D52" t="n">
-        <v>26923.0</v>
-      </c>
-    </row>
-    <row r="53">
+      <c r="D52">
+        <v>26923</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -989,11 +1274,11 @@
       <c r="C53" t="s">
         <v>6</v>
       </c>
-      <c r="D53" t="n">
-        <v>33753.0</v>
-      </c>
-    </row>
-    <row r="54">
+      <c r="D53">
+        <v>33753</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -1003,11 +1288,11 @@
       <c r="C54" t="s">
         <v>61</v>
       </c>
-      <c r="D54" t="n">
-        <v>6148.0</v>
-      </c>
-    </row>
-    <row r="55">
+      <c r="D54">
+        <v>6148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -1017,11 +1302,11 @@
       <c r="C55" t="s">
         <v>61</v>
       </c>
-      <c r="D55" t="n">
-        <v>906.0</v>
-      </c>
-    </row>
-    <row r="56">
+      <c r="D55">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1031,11 +1316,11 @@
       <c r="C56" t="s">
         <v>61</v>
       </c>
-      <c r="D56" t="n">
-        <v>71.0</v>
-      </c>
-    </row>
-    <row r="57">
+      <c r="D56">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -1045,11 +1330,11 @@
       <c r="C57" t="s">
         <v>61</v>
       </c>
-      <c r="D57" t="n">
-        <v>474.0</v>
-      </c>
-    </row>
-    <row r="58">
+      <c r="D57">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -1059,11 +1344,11 @@
       <c r="C58" t="s">
         <v>61</v>
       </c>
-      <c r="D58" t="n">
-        <v>2334.0</v>
-      </c>
-    </row>
-    <row r="59">
+      <c r="D58">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -1073,11 +1358,11 @@
       <c r="C59" t="s">
         <v>61</v>
       </c>
-      <c r="D59" t="n">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="60">
+      <c r="D59">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -1087,11 +1372,11 @@
       <c r="C60" t="s">
         <v>61</v>
       </c>
-      <c r="D60" t="n">
-        <v>26582.0</v>
-      </c>
-    </row>
-    <row r="61">
+      <c r="D60">
+        <v>26582</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -1101,11 +1386,11 @@
       <c r="C61" t="s">
         <v>61</v>
       </c>
-      <c r="D61" t="n">
-        <v>285.0</v>
-      </c>
-    </row>
-    <row r="62">
+      <c r="D61">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -1115,11 +1400,11 @@
       <c r="C62" t="s">
         <v>61</v>
       </c>
-      <c r="D62" t="n">
-        <v>279.0</v>
-      </c>
-    </row>
-    <row r="63">
+      <c r="D62">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -1129,11 +1414,11 @@
       <c r="C63" t="s">
         <v>61</v>
       </c>
-      <c r="D63" t="n">
-        <v>3265.0</v>
-      </c>
-    </row>
-    <row r="64">
+      <c r="D63">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -1143,11 +1428,11 @@
       <c r="C64" t="s">
         <v>61</v>
       </c>
-      <c r="D64" t="n">
-        <v>575.0</v>
-      </c>
-    </row>
-    <row r="65">
+      <c r="D64">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>18</v>
       </c>
@@ -1157,11 +1442,11 @@
       <c r="C65" t="s">
         <v>61</v>
       </c>
-      <c r="D65" t="n">
-        <v>750.0</v>
-      </c>
-    </row>
-    <row r="66">
+      <c r="D65">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -1171,11 +1456,11 @@
       <c r="C66" t="s">
         <v>61</v>
       </c>
-      <c r="D66" t="n">
-        <v>291.0</v>
-      </c>
-    </row>
-    <row r="67">
+      <c r="D66">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -1185,11 +1470,11 @@
       <c r="C67" t="s">
         <v>61</v>
       </c>
-      <c r="D67" t="n">
-        <v>454.0</v>
-      </c>
-    </row>
-    <row r="68">
+      <c r="D67">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>21</v>
       </c>
@@ -1199,11 +1484,11 @@
       <c r="C68" t="s">
         <v>61</v>
       </c>
-      <c r="D68" t="n">
-        <v>4062.0</v>
-      </c>
-    </row>
-    <row r="69">
+      <c r="D68">
+        <v>4062</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>22</v>
       </c>
@@ -1213,11 +1498,11 @@
       <c r="C69" t="s">
         <v>61</v>
       </c>
-      <c r="D69" t="n">
-        <v>786.0</v>
-      </c>
-    </row>
-    <row r="70">
+      <c r="D69">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -1227,11 +1512,11 @@
       <c r="C70" t="s">
         <v>61</v>
       </c>
-      <c r="D70" t="n">
-        <v>501.0</v>
-      </c>
-    </row>
-    <row r="71">
+      <c r="D70">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>24</v>
       </c>
@@ -1241,11 +1526,11 @@
       <c r="C71" t="s">
         <v>61</v>
       </c>
-      <c r="D71" t="n">
-        <v>1146.0</v>
-      </c>
-    </row>
-    <row r="72">
+      <c r="D71">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>25</v>
       </c>
@@ -1255,11 +1540,11 @@
       <c r="C72" t="s">
         <v>61</v>
       </c>
-      <c r="D72" t="n">
-        <v>2204.0</v>
-      </c>
-    </row>
-    <row r="73">
+      <c r="D72">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>26</v>
       </c>
@@ -1269,11 +1554,11 @@
       <c r="C73" t="s">
         <v>61</v>
       </c>
-      <c r="D73" t="n">
-        <v>1307.0</v>
-      </c>
-    </row>
-    <row r="74">
+      <c r="D73">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>27</v>
       </c>
@@ -1283,11 +1568,11 @@
       <c r="C74" t="s">
         <v>61</v>
       </c>
-      <c r="D74" t="n">
-        <v>221.0</v>
-      </c>
-    </row>
-    <row r="75">
+      <c r="D74">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>28</v>
       </c>
@@ -1297,11 +1582,11 @@
       <c r="C75" t="s">
         <v>61</v>
       </c>
-      <c r="D75" t="n">
-        <v>151.0</v>
-      </c>
-    </row>
-    <row r="76">
+      <c r="D75">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>29</v>
       </c>
@@ -1311,11 +1596,11 @@
       <c r="C76" t="s">
         <v>61</v>
       </c>
-      <c r="D76" t="n">
-        <v>163.0</v>
-      </c>
-    </row>
-    <row r="77">
+      <c r="D76">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>30</v>
       </c>
@@ -1325,11 +1610,11 @@
       <c r="C77" t="s">
         <v>61</v>
       </c>
-      <c r="D77" t="n">
-        <v>8551.0</v>
-      </c>
-    </row>
-    <row r="78">
+      <c r="D77">
+        <v>8551</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>31</v>
       </c>
@@ -1339,11 +1624,11 @@
       <c r="C78" t="s">
         <v>61</v>
       </c>
-      <c r="D78" t="n">
-        <v>530.0</v>
-      </c>
-    </row>
-    <row r="79">
+      <c r="D78">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>32</v>
       </c>
@@ -1353,11 +1638,11 @@
       <c r="C79" t="s">
         <v>61</v>
       </c>
-      <c r="D79" t="n">
-        <v>21069.0</v>
-      </c>
-    </row>
-    <row r="80">
+      <c r="D79">
+        <v>21069</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>33</v>
       </c>
@@ -1367,11 +1652,11 @@
       <c r="C80" t="s">
         <v>61</v>
       </c>
-      <c r="D80" t="n">
-        <v>490.0</v>
-      </c>
-    </row>
-    <row r="81">
+      <c r="D80">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>34</v>
       </c>
@@ -1381,11 +1666,11 @@
       <c r="C81" t="s">
         <v>61</v>
       </c>
-      <c r="D81" t="n">
-        <v>1759.0</v>
-      </c>
-    </row>
-    <row r="82">
+      <c r="D81">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>35</v>
       </c>
@@ -1395,11 +1680,11 @@
       <c r="C82" t="s">
         <v>61</v>
       </c>
-      <c r="D82" t="n">
-        <v>2206.0</v>
-      </c>
-    </row>
-    <row r="83">
+      <c r="D82">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>36</v>
       </c>
@@ -1409,11 +1694,11 @@
       <c r="C83" t="s">
         <v>61</v>
       </c>
-      <c r="D83" t="n">
-        <v>788.0</v>
-      </c>
-    </row>
-    <row r="84">
+      <c r="D83">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>37</v>
       </c>
@@ -1423,11 +1708,11 @@
       <c r="C84" t="s">
         <v>61</v>
       </c>
-      <c r="D84" t="n">
-        <v>474.0</v>
-      </c>
-    </row>
-    <row r="85">
+      <c r="D84">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>38</v>
       </c>
@@ -1437,11 +1722,11 @@
       <c r="C85" t="s">
         <v>61</v>
       </c>
-      <c r="D85" t="n">
-        <v>885.0</v>
-      </c>
-    </row>
-    <row r="86">
+      <c r="D85">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>39</v>
       </c>
@@ -1451,11 +1736,11 @@
       <c r="C86" t="s">
         <v>61</v>
       </c>
-      <c r="D86" t="n">
-        <v>552.0</v>
-      </c>
-    </row>
-    <row r="87">
+      <c r="D86">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>40</v>
       </c>
@@ -1465,11 +1750,11 @@
       <c r="C87" t="s">
         <v>61</v>
       </c>
-      <c r="D87" t="n">
-        <v>2831.0</v>
-      </c>
-    </row>
-    <row r="88">
+      <c r="D87">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>41</v>
       </c>
@@ -1479,11 +1764,11 @@
       <c r="C88" t="s">
         <v>61</v>
       </c>
-      <c r="D88" t="n">
-        <v>2814.0</v>
-      </c>
-    </row>
-    <row r="89">
+      <c r="D88">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>42</v>
       </c>
@@ -1493,11 +1778,11 @@
       <c r="C89" t="s">
         <v>61</v>
       </c>
-      <c r="D89" t="n">
-        <v>843.0</v>
-      </c>
-    </row>
-    <row r="90">
+      <c r="D89">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>43</v>
       </c>
@@ -1507,11 +1792,11 @@
       <c r="C90" t="s">
         <v>61</v>
       </c>
-      <c r="D90" t="n">
-        <v>5464.0</v>
-      </c>
-    </row>
-    <row r="91">
+      <c r="D90">
+        <v>5464</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>44</v>
       </c>
@@ -1521,11 +1806,11 @@
       <c r="C91" t="s">
         <v>61</v>
       </c>
-      <c r="D91" t="n">
-        <v>1601.0</v>
-      </c>
-    </row>
-    <row r="92">
+      <c r="D91">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>45</v>
       </c>
@@ -1535,11 +1820,11 @@
       <c r="C92" t="s">
         <v>61</v>
       </c>
-      <c r="D92" t="n">
-        <v>349.0</v>
-      </c>
-    </row>
-    <row r="93">
+      <c r="D92">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>46</v>
       </c>
@@ -1549,11 +1834,11 @@
       <c r="C93" t="s">
         <v>61</v>
       </c>
-      <c r="D93" t="n">
-        <v>1884.0</v>
-      </c>
-    </row>
-    <row r="94">
+      <c r="D93">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>47</v>
       </c>
@@ -1563,11 +1848,11 @@
       <c r="C94" t="s">
         <v>61</v>
       </c>
-      <c r="D94" t="n">
-        <v>8636.0</v>
-      </c>
-    </row>
-    <row r="95">
+      <c r="D94">
+        <v>8636</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>48</v>
       </c>
@@ -1577,11 +1862,11 @@
       <c r="C95" t="s">
         <v>61</v>
       </c>
-      <c r="D95" t="n">
-        <v>17458.0</v>
-      </c>
-    </row>
-    <row r="96">
+      <c r="D95">
+        <v>17458</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>49</v>
       </c>
@@ -1591,11 +1876,11 @@
       <c r="C96" t="s">
         <v>62</v>
       </c>
-      <c r="D96" t="n">
-        <v>1098.0</v>
-      </c>
-    </row>
-    <row r="97">
+      <c r="D96">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>50</v>
       </c>
@@ -1605,11 +1890,11 @@
       <c r="C97" t="s">
         <v>62</v>
       </c>
-      <c r="D97" t="n">
-        <v>1014.0</v>
-      </c>
-    </row>
-    <row r="98">
+      <c r="D97">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>51</v>
       </c>
@@ -1619,11 +1904,11 @@
       <c r="C98" t="s">
         <v>62</v>
       </c>
-      <c r="D98" t="n">
-        <v>1132.0</v>
-      </c>
-    </row>
-    <row r="99">
+      <c r="D98">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>52</v>
       </c>
@@ -1633,11 +1918,11 @@
       <c r="C99" t="s">
         <v>62</v>
       </c>
-      <c r="D99" t="n">
-        <v>4828.0</v>
-      </c>
-    </row>
-    <row r="100">
+      <c r="D99">
+        <v>4828</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -1647,11 +1932,11 @@
       <c r="C100" t="s">
         <v>59</v>
       </c>
-      <c r="D100" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="101">
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -1661,11 +1946,11 @@
       <c r="C101" t="s">
         <v>60</v>
       </c>
-      <c r="D101" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="102">
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -1675,11 +1960,11 @@
       <c r="C102" t="s">
         <v>6</v>
       </c>
-      <c r="D102" t="n">
-        <v>51763.0</v>
-      </c>
-    </row>
-    <row r="103">
+      <c r="D102">
+        <v>51763</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -1689,11 +1974,11 @@
       <c r="C103" t="s">
         <v>61</v>
       </c>
-      <c r="D103" t="n">
-        <v>6082.0</v>
-      </c>
-    </row>
-    <row r="104">
+      <c r="D103">
+        <v>6082</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -1703,11 +1988,11 @@
       <c r="C104" t="s">
         <v>61</v>
       </c>
-      <c r="D104" t="n">
-        <v>900.0</v>
-      </c>
-    </row>
-    <row r="105">
+      <c r="D104">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -1717,11 +2002,11 @@
       <c r="C105" t="s">
         <v>61</v>
       </c>
-      <c r="D105" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="106">
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -1731,11 +2016,11 @@
       <c r="C106" t="s">
         <v>61</v>
       </c>
-      <c r="D106" t="n">
-        <v>519.0</v>
-      </c>
-    </row>
-    <row r="107">
+      <c r="D106">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -1745,11 +2030,11 @@
       <c r="C107" t="s">
         <v>61</v>
       </c>
-      <c r="D107" t="n">
-        <v>2254.0</v>
-      </c>
-    </row>
-    <row r="108">
+      <c r="D107">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>12</v>
       </c>
@@ -1759,11 +2044,11 @@
       <c r="C108" t="s">
         <v>61</v>
       </c>
-      <c r="D108" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="109">
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>13</v>
       </c>
@@ -1773,11 +2058,11 @@
       <c r="C109" t="s">
         <v>61</v>
       </c>
-      <c r="D109" t="n">
-        <v>26728.0</v>
-      </c>
-    </row>
-    <row r="110">
+      <c r="D109">
+        <v>26728</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -1787,11 +2072,11 @@
       <c r="C110" t="s">
         <v>61</v>
       </c>
-      <c r="D110" t="n">
-        <v>301.0</v>
-      </c>
-    </row>
-    <row r="111">
+      <c r="D110">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>15</v>
       </c>
@@ -1801,11 +2086,11 @@
       <c r="C111" t="s">
         <v>61</v>
       </c>
-      <c r="D111" t="n">
-        <v>265.0</v>
-      </c>
-    </row>
-    <row r="112">
+      <c r="D111">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>16</v>
       </c>
@@ -1815,11 +2100,11 @@
       <c r="C112" t="s">
         <v>61</v>
       </c>
-      <c r="D112" t="n">
-        <v>3286.0</v>
-      </c>
-    </row>
-    <row r="113">
+      <c r="D112">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>17</v>
       </c>
@@ -1829,11 +2114,11 @@
       <c r="C113" t="s">
         <v>61</v>
       </c>
-      <c r="D113" t="n">
-        <v>545.0</v>
-      </c>
-    </row>
-    <row r="114">
+      <c r="D113">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>18</v>
       </c>
@@ -1843,11 +2128,11 @@
       <c r="C114" t="s">
         <v>61</v>
       </c>
-      <c r="D114" t="n">
-        <v>695.0</v>
-      </c>
-    </row>
-    <row r="115">
+      <c r="D114">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>19</v>
       </c>
@@ -1857,11 +2142,11 @@
       <c r="C115" t="s">
         <v>61</v>
       </c>
-      <c r="D115" t="n">
-        <v>265.0</v>
-      </c>
-    </row>
-    <row r="116">
+      <c r="D115">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>20</v>
       </c>
@@ -1871,11 +2156,11 @@
       <c r="C116" t="s">
         <v>61</v>
       </c>
-      <c r="D116" t="n">
-        <v>385.0</v>
-      </c>
-    </row>
-    <row r="117">
+      <c r="D116">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>21</v>
       </c>
@@ -1885,11 +2170,11 @@
       <c r="C117" t="s">
         <v>61</v>
       </c>
-      <c r="D117" t="n">
-        <v>3597.0</v>
-      </c>
-    </row>
-    <row r="118">
+      <c r="D117">
+        <v>3597</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>22</v>
       </c>
@@ -1899,11 +2184,11 @@
       <c r="C118" t="s">
         <v>61</v>
       </c>
-      <c r="D118" t="n">
-        <v>721.0</v>
-      </c>
-    </row>
-    <row r="119">
+      <c r="D118">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>23</v>
       </c>
@@ -1913,11 +2198,11 @@
       <c r="C119" t="s">
         <v>61</v>
       </c>
-      <c r="D119" t="n">
-        <v>353.0</v>
-      </c>
-    </row>
-    <row r="120">
+      <c r="D119">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>24</v>
       </c>
@@ -1927,11 +2212,11 @@
       <c r="C120" t="s">
         <v>61</v>
       </c>
-      <c r="D120" t="n">
-        <v>1354.0</v>
-      </c>
-    </row>
-    <row r="121">
+      <c r="D120">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>25</v>
       </c>
@@ -1941,11 +2226,11 @@
       <c r="C121" t="s">
         <v>61</v>
       </c>
-      <c r="D121" t="n">
-        <v>2059.0</v>
-      </c>
-    </row>
-    <row r="122">
+      <c r="D121">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>26</v>
       </c>
@@ -1955,11 +2240,11 @@
       <c r="C122" t="s">
         <v>61</v>
       </c>
-      <c r="D122" t="n">
-        <v>1305.0</v>
-      </c>
-    </row>
-    <row r="123">
+      <c r="D122">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>27</v>
       </c>
@@ -1969,11 +2254,11 @@
       <c r="C123" t="s">
         <v>61</v>
       </c>
-      <c r="D123" t="n">
-        <v>232.0</v>
-      </c>
-    </row>
-    <row r="124">
+      <c r="D123">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>28</v>
       </c>
@@ -1983,11 +2268,11 @@
       <c r="C124" t="s">
         <v>61</v>
       </c>
-      <c r="D124" t="n">
-        <v>113.0</v>
-      </c>
-    </row>
-    <row r="125">
+      <c r="D124">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>29</v>
       </c>
@@ -1997,11 +2282,11 @@
       <c r="C125" t="s">
         <v>61</v>
       </c>
-      <c r="D125" t="n">
-        <v>151.0</v>
-      </c>
-    </row>
-    <row r="126">
+      <c r="D125">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>30</v>
       </c>
@@ -2011,11 +2296,11 @@
       <c r="C126" t="s">
         <v>61</v>
       </c>
-      <c r="D126" t="n">
-        <v>9115.0</v>
-      </c>
-    </row>
-    <row r="127">
+      <c r="D126">
+        <v>9115</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>31</v>
       </c>
@@ -2025,11 +2310,11 @@
       <c r="C127" t="s">
         <v>61</v>
       </c>
-      <c r="D127" t="n">
-        <v>551.0</v>
-      </c>
-    </row>
-    <row r="128">
+      <c r="D127">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>32</v>
       </c>
@@ -2039,11 +2324,11 @@
       <c r="C128" t="s">
         <v>61</v>
       </c>
-      <c r="D128" t="n">
-        <v>20869.0</v>
-      </c>
-    </row>
-    <row r="129">
+      <c r="D128">
+        <v>20869</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>33</v>
       </c>
@@ -2053,11 +2338,11 @@
       <c r="C129" t="s">
         <v>61</v>
       </c>
-      <c r="D129" t="n">
-        <v>459.0</v>
-      </c>
-    </row>
-    <row r="130">
+      <c r="D129">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>34</v>
       </c>
@@ -2067,11 +2352,11 @@
       <c r="C130" t="s">
         <v>61</v>
       </c>
-      <c r="D130" t="n">
-        <v>1688.0</v>
-      </c>
-    </row>
-    <row r="131">
+      <c r="D130">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>35</v>
       </c>
@@ -2081,11 +2366,11 @@
       <c r="C131" t="s">
         <v>61</v>
       </c>
-      <c r="D131" t="n">
-        <v>2276.0</v>
-      </c>
-    </row>
-    <row r="132">
+      <c r="D131">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>36</v>
       </c>
@@ -2095,11 +2380,11 @@
       <c r="C132" t="s">
         <v>61</v>
       </c>
-      <c r="D132" t="n">
-        <v>737.0</v>
-      </c>
-    </row>
-    <row r="133">
+      <c r="D132">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>37</v>
       </c>
@@ -2109,11 +2394,11 @@
       <c r="C133" t="s">
         <v>61</v>
       </c>
-      <c r="D133" t="n">
-        <v>471.0</v>
-      </c>
-    </row>
-    <row r="134">
+      <c r="D133">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>38</v>
       </c>
@@ -2123,11 +2408,11 @@
       <c r="C134" t="s">
         <v>61</v>
       </c>
-      <c r="D134" t="n">
-        <v>884.0</v>
-      </c>
-    </row>
-    <row r="135">
+      <c r="D134">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>39</v>
       </c>
@@ -2137,11 +2422,11 @@
       <c r="C135" t="s">
         <v>61</v>
       </c>
-      <c r="D135" t="n">
-        <v>545.0</v>
-      </c>
-    </row>
-    <row r="136">
+      <c r="D135">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>40</v>
       </c>
@@ -2151,11 +2436,11 @@
       <c r="C136" t="s">
         <v>61</v>
       </c>
-      <c r="D136" t="n">
-        <v>3357.0</v>
-      </c>
-    </row>
-    <row r="137">
+      <c r="D136">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>41</v>
       </c>
@@ -2165,11 +2450,11 @@
       <c r="C137" t="s">
         <v>61</v>
       </c>
-      <c r="D137" t="n">
-        <v>3177.0</v>
-      </c>
-    </row>
-    <row r="138">
+      <c r="D137">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>42</v>
       </c>
@@ -2179,11 +2464,11 @@
       <c r="C138" t="s">
         <v>61</v>
       </c>
-      <c r="D138" t="n">
-        <v>858.0</v>
-      </c>
-    </row>
-    <row r="139">
+      <c r="D138">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>43</v>
       </c>
@@ -2193,11 +2478,11 @@
       <c r="C139" t="s">
         <v>61</v>
       </c>
-      <c r="D139" t="n">
-        <v>5317.0</v>
-      </c>
-    </row>
-    <row r="140">
+      <c r="D139">
+        <v>5317</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>44</v>
       </c>
@@ -2207,11 +2492,11 @@
       <c r="C140" t="s">
         <v>61</v>
       </c>
-      <c r="D140" t="n">
-        <v>1586.0</v>
-      </c>
-    </row>
-    <row r="141">
+      <c r="D140">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>45</v>
       </c>
@@ -2221,11 +2506,11 @@
       <c r="C141" t="s">
         <v>61</v>
       </c>
-      <c r="D141" t="n">
-        <v>363.0</v>
-      </c>
-    </row>
-    <row r="142">
+      <c r="D141">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>46</v>
       </c>
@@ -2235,11 +2520,11 @@
       <c r="C142" t="s">
         <v>61</v>
       </c>
-      <c r="D142" t="n">
-        <v>2187.0</v>
-      </c>
-    </row>
-    <row r="143">
+      <c r="D142">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>47</v>
       </c>
@@ -2249,11 +2534,11 @@
       <c r="C143" t="s">
         <v>61</v>
       </c>
-      <c r="D143" t="n">
-        <v>8669.0</v>
-      </c>
-    </row>
-    <row r="144">
+      <c r="D143">
+        <v>8669</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>48</v>
       </c>
@@ -2263,11 +2548,11 @@
       <c r="C144" t="s">
         <v>61</v>
       </c>
-      <c r="D144" t="n">
-        <v>18349.0</v>
-      </c>
-    </row>
-    <row r="145">
+      <c r="D144">
+        <v>18349</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>49</v>
       </c>
@@ -2277,11 +2562,11 @@
       <c r="C145" t="s">
         <v>62</v>
       </c>
-      <c r="D145" t="n">
-        <v>774.0</v>
-      </c>
-    </row>
-    <row r="146">
+      <c r="D145">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>50</v>
       </c>
@@ -2291,11 +2576,11 @@
       <c r="C146" t="s">
         <v>62</v>
       </c>
-      <c r="D146" t="n">
-        <v>720.0</v>
-      </c>
-    </row>
-    <row r="147">
+      <c r="D146">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>51</v>
       </c>
@@ -2305,11 +2590,11 @@
       <c r="C147" t="s">
         <v>62</v>
       </c>
-      <c r="D147" t="n">
-        <v>722.0</v>
-      </c>
-    </row>
-    <row r="148">
+      <c r="D147">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>52</v>
       </c>
@@ -2319,11 +2604,11 @@
       <c r="C148" t="s">
         <v>62</v>
       </c>
-      <c r="D148" t="n">
-        <v>3866.0</v>
-      </c>
-    </row>
-    <row r="149">
+      <c r="D148">
+        <v>3866</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -2333,11 +2618,11 @@
       <c r="C149" t="s">
         <v>59</v>
       </c>
-      <c r="D149" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="150">
+      <c r="D149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -2347,11 +2632,11 @@
       <c r="C150" t="s">
         <v>60</v>
       </c>
-      <c r="D150" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="151">
+      <c r="D150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -2361,11 +2646,11 @@
       <c r="C151" t="s">
         <v>6</v>
       </c>
-      <c r="D151" t="n">
-        <v>15830.0</v>
-      </c>
-    </row>
-    <row r="152">
+      <c r="D151">
+        <v>15830</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -2375,11 +2660,11 @@
       <c r="C152" t="s">
         <v>61</v>
       </c>
-      <c r="D152" t="n">
-        <v>3533.0</v>
-      </c>
-    </row>
-    <row r="153">
+      <c r="D152">
+        <v>3533</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>8</v>
       </c>
@@ -2389,11 +2674,11 @@
       <c r="C153" t="s">
         <v>61</v>
       </c>
-      <c r="D153" t="n">
-        <v>542.0</v>
-      </c>
-    </row>
-    <row r="154">
+      <c r="D153">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>9</v>
       </c>
@@ -2403,11 +2688,11 @@
       <c r="C154" t="s">
         <v>61</v>
       </c>
-      <c r="D154" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="155">
+      <c r="D154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>10</v>
       </c>
@@ -2417,11 +2702,11 @@
       <c r="C155" t="s">
         <v>61</v>
       </c>
-      <c r="D155" t="n">
-        <v>287.0</v>
-      </c>
-    </row>
-    <row r="156">
+      <c r="D155">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -2431,11 +2716,11 @@
       <c r="C156" t="s">
         <v>61</v>
       </c>
-      <c r="D156" t="n">
-        <v>1569.0</v>
-      </c>
-    </row>
-    <row r="157">
+      <c r="D156">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>12</v>
       </c>
@@ -2445,11 +2730,11 @@
       <c r="C157" t="s">
         <v>61</v>
       </c>
-      <c r="D157" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="158">
+      <c r="D157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>13</v>
       </c>
@@ -2459,11 +2744,11 @@
       <c r="C158" t="s">
         <v>61</v>
       </c>
-      <c r="D158" t="n">
-        <v>16174.0</v>
-      </c>
-    </row>
-    <row r="159">
+      <c r="D158">
+        <v>16174</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>14</v>
       </c>
@@ -2473,11 +2758,11 @@
       <c r="C159" t="s">
         <v>61</v>
       </c>
-      <c r="D159" t="n">
-        <v>160.0</v>
-      </c>
-    </row>
-    <row r="160">
+      <c r="D159">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -2487,11 +2772,11 @@
       <c r="C160" t="s">
         <v>61</v>
       </c>
-      <c r="D160" t="n">
-        <v>186.0</v>
-      </c>
-    </row>
-    <row r="161">
+      <c r="D160">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>16</v>
       </c>
@@ -2501,11 +2786,11 @@
       <c r="C161" t="s">
         <v>61</v>
       </c>
-      <c r="D161" t="n">
-        <v>1969.0</v>
-      </c>
-    </row>
-    <row r="162">
+      <c r="D161">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -2515,11 +2800,11 @@
       <c r="C162" t="s">
         <v>61</v>
       </c>
-      <c r="D162" t="n">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="163">
+      <c r="D162">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>18</v>
       </c>
@@ -2529,11 +2814,11 @@
       <c r="C163" t="s">
         <v>61</v>
       </c>
-      <c r="D163" t="n">
-        <v>483.0</v>
-      </c>
-    </row>
-    <row r="164">
+      <c r="D163">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>19</v>
       </c>
@@ -2543,11 +2828,11 @@
       <c r="C164" t="s">
         <v>61</v>
       </c>
-      <c r="D164" t="n">
-        <v>163.0</v>
-      </c>
-    </row>
-    <row r="165">
+      <c r="D164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>20</v>
       </c>
@@ -2557,11 +2842,11 @@
       <c r="C165" t="s">
         <v>61</v>
       </c>
-      <c r="D165" t="n">
-        <v>239.0</v>
-      </c>
-    </row>
-    <row r="166">
+      <c r="D165">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -2571,11 +2856,11 @@
       <c r="C166" t="s">
         <v>61</v>
       </c>
-      <c r="D166" t="n">
-        <v>1988.0</v>
-      </c>
-    </row>
-    <row r="167">
+      <c r="D166">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>22</v>
       </c>
@@ -2585,11 +2870,11 @@
       <c r="C167" t="s">
         <v>61</v>
       </c>
-      <c r="D167" t="n">
-        <v>467.0</v>
-      </c>
-    </row>
-    <row r="168">
+      <c r="D167">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>23</v>
       </c>
@@ -2599,11 +2884,11 @@
       <c r="C168" t="s">
         <v>61</v>
       </c>
-      <c r="D168" t="n">
-        <v>168.0</v>
-      </c>
-    </row>
-    <row r="169">
+      <c r="D168">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>24</v>
       </c>
@@ -2613,11 +2898,11 @@
       <c r="C169" t="s">
         <v>61</v>
       </c>
-      <c r="D169" t="n">
-        <v>535.0</v>
-      </c>
-    </row>
-    <row r="170">
+      <c r="D169">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>25</v>
       </c>
@@ -2627,11 +2912,11 @@
       <c r="C170" t="s">
         <v>61</v>
       </c>
-      <c r="D170" t="n">
-        <v>1283.0</v>
-      </c>
-    </row>
-    <row r="171">
+      <c r="D170">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>26</v>
       </c>
@@ -2641,11 +2926,11 @@
       <c r="C171" t="s">
         <v>61</v>
       </c>
-      <c r="D171" t="n">
-        <v>724.0</v>
-      </c>
-    </row>
-    <row r="172">
+      <c r="D171">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>27</v>
       </c>
@@ -2655,11 +2940,11 @@
       <c r="C172" t="s">
         <v>61</v>
       </c>
-      <c r="D172" t="n">
-        <v>132.0</v>
-      </c>
-    </row>
-    <row r="173">
+      <c r="D172">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>28</v>
       </c>
@@ -2669,11 +2954,11 @@
       <c r="C173" t="s">
         <v>61</v>
       </c>
-      <c r="D173" t="n">
-        <v>58.0</v>
-      </c>
-    </row>
-    <row r="174">
+      <c r="D173">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>29</v>
       </c>
@@ -2683,11 +2968,11 @@
       <c r="C174" t="s">
         <v>61</v>
       </c>
-      <c r="D174" t="n">
-        <v>111.0</v>
-      </c>
-    </row>
-    <row r="175">
+      <c r="D174">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>30</v>
       </c>
@@ -2697,11 +2982,11 @@
       <c r="C175" t="s">
         <v>61</v>
       </c>
-      <c r="D175" t="n">
-        <v>5010.0</v>
-      </c>
-    </row>
-    <row r="176">
+      <c r="D175">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>31</v>
       </c>
@@ -2711,11 +2996,11 @@
       <c r="C176" t="s">
         <v>61</v>
       </c>
-      <c r="D176" t="n">
-        <v>334.0</v>
-      </c>
-    </row>
-    <row r="177">
+      <c r="D176">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>32</v>
       </c>
@@ -2725,11 +3010,11 @@
       <c r="C177" t="s">
         <v>61</v>
       </c>
-      <c r="D177" t="n">
-        <v>13052.0</v>
-      </c>
-    </row>
-    <row r="178">
+      <c r="D177">
+        <v>13052</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>33</v>
       </c>
@@ -2739,11 +3024,11 @@
       <c r="C178" t="s">
         <v>61</v>
       </c>
-      <c r="D178" t="n">
-        <v>325.0</v>
-      </c>
-    </row>
-    <row r="179">
+      <c r="D178">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>34</v>
       </c>
@@ -2753,11 +3038,11 @@
       <c r="C179" t="s">
         <v>61</v>
       </c>
-      <c r="D179" t="n">
-        <v>1079.0</v>
-      </c>
-    </row>
-    <row r="180">
+      <c r="D179">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>35</v>
       </c>
@@ -2767,11 +3052,11 @@
       <c r="C180" t="s">
         <v>61</v>
       </c>
-      <c r="D180" t="n">
-        <v>1159.0</v>
-      </c>
-    </row>
-    <row r="181">
+      <c r="D180">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>36</v>
       </c>
@@ -2781,11 +3066,11 @@
       <c r="C181" t="s">
         <v>61</v>
       </c>
-      <c r="D181" t="n">
-        <v>446.0</v>
-      </c>
-    </row>
-    <row r="182">
+      <c r="D181">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>37</v>
       </c>
@@ -2795,11 +3080,11 @@
       <c r="C182" t="s">
         <v>61</v>
       </c>
-      <c r="D182" t="n">
-        <v>280.0</v>
-      </c>
-    </row>
-    <row r="183">
+      <c r="D182">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>38</v>
       </c>
@@ -2809,11 +3094,11 @@
       <c r="C183" t="s">
         <v>61</v>
       </c>
-      <c r="D183" t="n">
-        <v>520.0</v>
-      </c>
-    </row>
-    <row r="184">
+      <c r="D183">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>39</v>
       </c>
@@ -2823,11 +3108,11 @@
       <c r="C184" t="s">
         <v>61</v>
       </c>
-      <c r="D184" t="n">
-        <v>355.0</v>
-      </c>
-    </row>
-    <row r="185">
+      <c r="D184">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>40</v>
       </c>
@@ -2837,11 +3122,11 @@
       <c r="C185" t="s">
         <v>61</v>
       </c>
-      <c r="D185" t="n">
-        <v>1383.0</v>
-      </c>
-    </row>
-    <row r="186">
+      <c r="D185">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>41</v>
       </c>
@@ -2851,11 +3136,11 @@
       <c r="C186" t="s">
         <v>61</v>
       </c>
-      <c r="D186" t="n">
-        <v>1543.0</v>
-      </c>
-    </row>
-    <row r="187">
+      <c r="D186">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>42</v>
       </c>
@@ -2865,11 +3150,11 @@
       <c r="C187" t="s">
         <v>61</v>
       </c>
-      <c r="D187" t="n">
-        <v>460.0</v>
-      </c>
-    </row>
-    <row r="188">
+      <c r="D187">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>43</v>
       </c>
@@ -2879,11 +3164,11 @@
       <c r="C188" t="s">
         <v>61</v>
       </c>
-      <c r="D188" t="n">
-        <v>3344.0</v>
-      </c>
-    </row>
-    <row r="189">
+      <c r="D188">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>44</v>
       </c>
@@ -2893,11 +3178,11 @@
       <c r="C189" t="s">
         <v>61</v>
       </c>
-      <c r="D189" t="n">
-        <v>887.0</v>
-      </c>
-    </row>
-    <row r="190">
+      <c r="D189">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>45</v>
       </c>
@@ -2907,11 +3192,11 @@
       <c r="C190" t="s">
         <v>61</v>
       </c>
-      <c r="D190" t="n">
-        <v>205.0</v>
-      </c>
-    </row>
-    <row r="191">
+      <c r="D190">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>46</v>
       </c>
@@ -2921,11 +3206,11 @@
       <c r="C191" t="s">
         <v>61</v>
       </c>
-      <c r="D191" t="n">
-        <v>1016.0</v>
-      </c>
-    </row>
-    <row r="192">
+      <c r="D191">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>47</v>
       </c>
@@ -2935,11 +3220,11 @@
       <c r="C192" t="s">
         <v>61</v>
       </c>
-      <c r="D192" t="n">
-        <v>5260.0</v>
-      </c>
-    </row>
-    <row r="193">
+      <c r="D192">
+        <v>5260</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>48</v>
       </c>
@@ -2949,11 +3234,11 @@
       <c r="C193" t="s">
         <v>61</v>
       </c>
-      <c r="D193" t="n">
-        <v>10783.0</v>
-      </c>
-    </row>
-    <row r="194">
+      <c r="D193">
+        <v>10783</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>49</v>
       </c>
@@ -2963,11 +3248,11 @@
       <c r="C194" t="s">
         <v>62</v>
       </c>
-      <c r="D194" t="n">
-        <v>308.0</v>
-      </c>
-    </row>
-    <row r="195">
+      <c r="D194">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>50</v>
       </c>
@@ -2977,11 +3262,11 @@
       <c r="C195" t="s">
         <v>62</v>
       </c>
-      <c r="D195" t="n">
-        <v>151.0</v>
-      </c>
-    </row>
-    <row r="196">
+      <c r="D195">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>51</v>
       </c>
@@ -2991,11 +3276,11 @@
       <c r="C196" t="s">
         <v>62</v>
       </c>
-      <c r="D196" t="n">
-        <v>392.0</v>
-      </c>
-    </row>
-    <row r="197">
+      <c r="D196">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>52</v>
       </c>
@@ -3005,11 +3290,11 @@
       <c r="C197" t="s">
         <v>62</v>
       </c>
-      <c r="D197" t="n">
-        <v>805.0</v>
-      </c>
-    </row>
-    <row r="198">
+      <c r="D197">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>4</v>
       </c>
@@ -3019,11 +3304,11 @@
       <c r="C198" t="s">
         <v>59</v>
       </c>
-      <c r="D198" t="n">
-        <v>455.896147</v>
-      </c>
-    </row>
-    <row r="199">
+      <c r="D198">
+        <v>455.89614699999998</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>5</v>
       </c>
@@ -3033,11 +3318,11 @@
       <c r="C199" t="s">
         <v>60</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>406.626982</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>6</v>
       </c>
@@ -3047,11 +3332,11 @@
       <c r="C200" t="s">
         <v>6</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>3225.55</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>7</v>
       </c>
@@ -3061,11 +3346,11 @@
       <c r="C201" t="s">
         <v>61</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>970.02</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>8</v>
       </c>
@@ -3075,11 +3360,11 @@
       <c r="C202" t="s">
         <v>61</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>368.87</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>9</v>
       </c>
@@ -3089,11 +3374,11 @@
       <c r="C203" t="s">
         <v>61</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>33.49</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>10</v>
       </c>
@@ -3103,11 +3388,11 @@
       <c r="C204" t="s">
         <v>61</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>14.97</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>11</v>
       </c>
@@ -3117,11 +3402,11 @@
       <c r="C205" t="s">
         <v>61</v>
       </c>
-      <c r="D205" t="n">
-        <v>1157.15</v>
-      </c>
-    </row>
-    <row r="206">
+      <c r="D205">
+        <v>1157.1500000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>12</v>
       </c>
@@ -3131,11 +3416,11 @@
       <c r="C206" t="s">
         <v>61</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>6.31</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>13</v>
       </c>
@@ -3145,11 +3430,11 @@
       <c r="C207" t="s">
         <v>61</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>6741.91</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>14</v>
       </c>
@@ -3159,11 +3444,11 @@
       <c r="C208" t="s">
         <v>61</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>83.49</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>15</v>
       </c>
@@ -3173,11 +3458,11 @@
       <c r="C209" t="s">
         <v>61</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>24.88</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>16</v>
       </c>
@@ -3187,11 +3472,11 @@
       <c r="C210" t="s">
         <v>61</v>
       </c>
-      <c r="D210" t="n">
-        <v>762.0</v>
-      </c>
-    </row>
-    <row r="211">
+      <c r="D210">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>17</v>
       </c>
@@ -3201,11 +3486,11 @@
       <c r="C211" t="s">
         <v>61</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>118.72</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>18</v>
       </c>
@@ -3215,11 +3500,11 @@
       <c r="C212" t="s">
         <v>61</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>133.46</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>19</v>
       </c>
@@ -3229,11 +3514,11 @@
       <c r="C213" t="s">
         <v>61</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>76.22</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>20</v>
       </c>
@@ -3243,11 +3528,11 @@
       <c r="C214" t="s">
         <v>61</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>378.09</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>21</v>
       </c>
@@ -3257,11 +3542,11 @@
       <c r="C215" t="s">
         <v>61</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>659.59</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>22</v>
       </c>
@@ -3271,11 +3556,11 @@
       <c r="C216" t="s">
         <v>61</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>122.42</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>23</v>
       </c>
@@ -3285,11 +3570,11 @@
       <c r="C217" t="s">
         <v>61</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>66.91</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>24</v>
       </c>
@@ -3299,11 +3584,11 @@
       <c r="C218" t="s">
         <v>61</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>107.73</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>25</v>
       </c>
@@ -3313,11 +3598,11 @@
       <c r="C219" t="s">
         <v>61</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>1007.26</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>26</v>
       </c>
@@ -3327,11 +3612,11 @@
       <c r="C220" t="s">
         <v>61</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>180.9</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>27</v>
       </c>
@@ -3341,11 +3626,11 @@
       <c r="C221" t="s">
         <v>61</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>22.07</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>28</v>
       </c>
@@ -3355,11 +3640,11 @@
       <c r="C222" t="s">
         <v>61</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>14.1</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>29</v>
       </c>
@@ -3369,11 +3654,11 @@
       <c r="C223" t="s">
         <v>61</v>
       </c>
-      <c r="D223" t="n">
-        <v>4.64</v>
-      </c>
-    </row>
-    <row r="224">
+      <c r="D223">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>30</v>
       </c>
@@ -3383,11 +3668,11 @@
       <c r="C224" t="s">
         <v>61</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>4678.68</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>31</v>
       </c>
@@ -3397,11 +3682,11 @@
       <c r="C225" t="s">
         <v>61</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>58.93</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>32</v>
       </c>
@@ -3411,11 +3696,11 @@
       <c r="C226" t="s">
         <v>61</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>6947.15</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>33</v>
       </c>
@@ -3425,11 +3710,11 @@
       <c r="C227" t="s">
         <v>61</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>150.35</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>34</v>
       </c>
@@ -3439,11 +3724,11 @@
       <c r="C228" t="s">
         <v>61</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>388.14</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>35</v>
       </c>
@@ -3453,11 +3738,11 @@
       <c r="C229" t="s">
         <v>61</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>428.79</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>36</v>
       </c>
@@ -3467,11 +3752,11 @@
       <c r="C230" t="s">
         <v>61</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>165.4</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>37</v>
       </c>
@@ -3481,11 +3766,11 @@
       <c r="C231" t="s">
         <v>61</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>120.7</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>38</v>
       </c>
@@ -3495,11 +3780,11 @@
       <c r="C232" t="s">
         <v>61</v>
       </c>
-      <c r="D232" t="n">
-        <v>138.45</v>
-      </c>
-    </row>
-    <row r="233">
+      <c r="D232">
+        <v>138.44999999999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>39</v>
       </c>
@@ -3509,11 +3794,11 @@
       <c r="C233" t="s">
         <v>61</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>101.99</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>40</v>
       </c>
@@ -3523,11 +3808,11 @@
       <c r="C234" t="s">
         <v>61</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>1022.42</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>41</v>
       </c>
@@ -3537,11 +3822,11 @@
       <c r="C235" t="s">
         <v>61</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>751.62</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>42</v>
       </c>
@@ -3551,11 +3836,11 @@
       <c r="C236" t="s">
         <v>61</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>155.22</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>43</v>
       </c>
@@ -3565,11 +3850,11 @@
       <c r="C237" t="s">
         <v>61</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>1186.3</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>44</v>
       </c>
@@ -3579,11 +3864,11 @@
       <c r="C238" t="s">
         <v>61</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>317.19</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>45</v>
       </c>
@@ -3593,11 +3878,11 @@
       <c r="C239" t="s">
         <v>61</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>46.7</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>46</v>
       </c>
@@ -3607,11 +3892,11 @@
       <c r="C240" t="s">
         <v>61</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>355.57</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>47</v>
       </c>
@@ -3621,11 +3906,11 @@
       <c r="C241" t="s">
         <v>61</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>3504.17</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>48</v>
       </c>
@@ -3635,11 +3920,11 @@
       <c r="C242" t="s">
         <v>61</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>13164.13</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>49</v>
       </c>
@@ -3649,11 +3934,11 @@
       <c r="C243" t="s">
         <v>62</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>229.2</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>50</v>
       </c>
@@ -3663,11 +3948,11 @@
       <c r="C244" t="s">
         <v>62</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>231.22</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>51</v>
       </c>
@@ -3677,11 +3962,11 @@
       <c r="C245" t="s">
         <v>62</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>226.45</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>52</v>
       </c>
@@ -3691,11 +3976,11 @@
       <c r="C246" t="s">
         <v>62</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>1331.73</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>4</v>
       </c>
@@ -3705,11 +3990,11 @@
       <c r="C247" t="s">
         <v>59</v>
       </c>
-      <c r="D247" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="248">
+      <c r="D247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>5</v>
       </c>
@@ -3719,11 +4004,11 @@
       <c r="C248" t="s">
         <v>60</v>
       </c>
-      <c r="D248" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="249">
+      <c r="D248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>6</v>
       </c>
@@ -3733,11 +4018,11 @@
       <c r="C249" t="s">
         <v>6</v>
       </c>
-      <c r="D249" t="n">
-        <v>2071.0</v>
-      </c>
-    </row>
-    <row r="250">
+      <c r="D249">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -3747,11 +4032,11 @@
       <c r="C250" t="s">
         <v>61</v>
       </c>
-      <c r="D250" t="n">
-        <v>308.0</v>
-      </c>
-    </row>
-    <row r="251">
+      <c r="D250">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>8</v>
       </c>
@@ -3761,11 +4046,11 @@
       <c r="C251" t="s">
         <v>61</v>
       </c>
-      <c r="D251" t="n">
-        <v>38.0</v>
-      </c>
-    </row>
-    <row r="252">
+      <c r="D251">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>9</v>
       </c>
@@ -3775,11 +4060,11 @@
       <c r="C252" t="s">
         <v>61</v>
       </c>
-      <c r="D252" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="253">
+      <c r="D252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>10</v>
       </c>
@@ -3789,11 +4074,11 @@
       <c r="C253" t="s">
         <v>61</v>
       </c>
-      <c r="D253" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="254">
+      <c r="D253">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>11</v>
       </c>
@@ -3803,11 +4088,11 @@
       <c r="C254" t="s">
         <v>61</v>
       </c>
-      <c r="D254" t="n">
-        <v>135.0</v>
-      </c>
-    </row>
-    <row r="255">
+      <c r="D254">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>12</v>
       </c>
@@ -3817,11 +4102,11 @@
       <c r="C255" t="s">
         <v>61</v>
       </c>
-      <c r="D255" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="256">
+      <c r="D255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>13</v>
       </c>
@@ -3831,11 +4116,11 @@
       <c r="C256" t="s">
         <v>61</v>
       </c>
-      <c r="D256" t="n">
-        <v>2102.0</v>
-      </c>
-    </row>
-    <row r="257">
+      <c r="D256">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>14</v>
       </c>
@@ -3845,11 +4130,11 @@
       <c r="C257" t="s">
         <v>61</v>
       </c>
-      <c r="D257" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="258">
+      <c r="D257">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>15</v>
       </c>
@@ -3859,11 +4144,11 @@
       <c r="C258" t="s">
         <v>61</v>
       </c>
-      <c r="D258" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="259">
+      <c r="D258">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>16</v>
       </c>
@@ -3873,11 +4158,11 @@
       <c r="C259" t="s">
         <v>61</v>
       </c>
-      <c r="D259" t="n">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="260">
+      <c r="D259">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>17</v>
       </c>
@@ -3887,11 +4172,11 @@
       <c r="C260" t="s">
         <v>61</v>
       </c>
-      <c r="D260" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="261">
+      <c r="D260">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>18</v>
       </c>
@@ -3901,11 +4186,11 @@
       <c r="C261" t="s">
         <v>61</v>
       </c>
-      <c r="D261" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="262">
+      <c r="D261">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>19</v>
       </c>
@@ -3915,11 +4200,11 @@
       <c r="C262" t="s">
         <v>61</v>
       </c>
-      <c r="D262" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="263">
+      <c r="D262">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>20</v>
       </c>
@@ -3929,11 +4214,11 @@
       <c r="C263" t="s">
         <v>61</v>
       </c>
-      <c r="D263" t="n">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="264">
+      <c r="D263">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>21</v>
       </c>
@@ -3943,11 +4228,11 @@
       <c r="C264" t="s">
         <v>61</v>
       </c>
-      <c r="D264" t="n">
-        <v>69.0</v>
-      </c>
-    </row>
-    <row r="265">
+      <c r="D264">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>22</v>
       </c>
@@ -3957,11 +4242,11 @@
       <c r="C265" t="s">
         <v>61</v>
       </c>
-      <c r="D265" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="266">
+      <c r="D265">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>23</v>
       </c>
@@ -3971,11 +4256,11 @@
       <c r="C266" t="s">
         <v>61</v>
       </c>
-      <c r="D266" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="267">
+      <c r="D266">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>24</v>
       </c>
@@ -3985,11 +4270,11 @@
       <c r="C267" t="s">
         <v>61</v>
       </c>
-      <c r="D267" t="n">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="268">
+      <c r="D267">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>25</v>
       </c>
@@ -3999,11 +4284,11 @@
       <c r="C268" t="s">
         <v>61</v>
       </c>
-      <c r="D268" t="n">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="269">
+      <c r="D268">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>26</v>
       </c>
@@ -4013,11 +4298,11 @@
       <c r="C269" t="s">
         <v>61</v>
       </c>
-      <c r="D269" t="n">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="270">
+      <c r="D269">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>27</v>
       </c>
@@ -4027,11 +4312,11 @@
       <c r="C270" t="s">
         <v>61</v>
       </c>
-      <c r="D270" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="271">
+      <c r="D270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>28</v>
       </c>
@@ -4041,11 +4326,11 @@
       <c r="C271" t="s">
         <v>61</v>
       </c>
-      <c r="D271" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="272">
+      <c r="D271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>29</v>
       </c>
@@ -4055,11 +4340,11 @@
       <c r="C272" t="s">
         <v>61</v>
       </c>
-      <c r="D272" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="273">
+      <c r="D272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>30</v>
       </c>
@@ -4069,11 +4354,11 @@
       <c r="C273" t="s">
         <v>61</v>
       </c>
-      <c r="D273" t="n">
-        <v>440.0</v>
-      </c>
-    </row>
-    <row r="274">
+      <c r="D273">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>31</v>
       </c>
@@ -4083,11 +4368,11 @@
       <c r="C274" t="s">
         <v>61</v>
       </c>
-      <c r="D274" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="275">
+      <c r="D274">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>32</v>
       </c>
@@ -4097,11 +4382,11 @@
       <c r="C275" t="s">
         <v>61</v>
       </c>
-      <c r="D275" t="n">
-        <v>330.0</v>
-      </c>
-    </row>
-    <row r="276">
+      <c r="D275">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>33</v>
       </c>
@@ -4111,11 +4396,11 @@
       <c r="C276" t="s">
         <v>61</v>
       </c>
-      <c r="D276" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="277">
+      <c r="D276">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>34</v>
       </c>
@@ -4125,11 +4410,11 @@
       <c r="C277" t="s">
         <v>61</v>
       </c>
-      <c r="D277" t="n">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="278">
+      <c r="D277">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>35</v>
       </c>
@@ -4139,11 +4424,11 @@
       <c r="C278" t="s">
         <v>61</v>
       </c>
-      <c r="D278" t="n">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="279">
+      <c r="D278">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>36</v>
       </c>
@@ -4153,11 +4438,11 @@
       <c r="C279" t="s">
         <v>61</v>
       </c>
-      <c r="D279" t="n">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="280">
+      <c r="D279">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>37</v>
       </c>
@@ -4167,11 +4452,11 @@
       <c r="C280" t="s">
         <v>61</v>
       </c>
-      <c r="D280" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="281">
+      <c r="D280">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>38</v>
       </c>
@@ -4181,11 +4466,11 @@
       <c r="C281" t="s">
         <v>61</v>
       </c>
-      <c r="D281" t="n">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="282">
+      <c r="D281">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>39</v>
       </c>
@@ -4195,11 +4480,11 @@
       <c r="C282" t="s">
         <v>61</v>
       </c>
-      <c r="D282" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="283">
+      <c r="D282">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>40</v>
       </c>
@@ -4209,11 +4494,11 @@
       <c r="C283" t="s">
         <v>61</v>
       </c>
-      <c r="D283" t="n">
-        <v>72.0</v>
-      </c>
-    </row>
-    <row r="284">
+      <c r="D283">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>41</v>
       </c>
@@ -4223,11 +4508,11 @@
       <c r="C284" t="s">
         <v>61</v>
       </c>
-      <c r="D284" t="n">
-        <v>97.0</v>
-      </c>
-    </row>
-    <row r="285">
+      <c r="D284">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>42</v>
       </c>
@@ -4237,11 +4522,11 @@
       <c r="C285" t="s">
         <v>61</v>
       </c>
-      <c r="D285" t="n">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="286">
+      <c r="D285">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>43</v>
       </c>
@@ -4251,11 +4536,11 @@
       <c r="C286" t="s">
         <v>61</v>
       </c>
-      <c r="D286" t="n">
-        <v>92.0</v>
-      </c>
-    </row>
-    <row r="287">
+      <c r="D286">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>44</v>
       </c>
@@ -4265,11 +4550,11 @@
       <c r="C287" t="s">
         <v>61</v>
       </c>
-      <c r="D287" t="n">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="288">
+      <c r="D287">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>45</v>
       </c>
@@ -4279,11 +4564,11 @@
       <c r="C288" t="s">
         <v>61</v>
       </c>
-      <c r="D288" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="289">
+      <c r="D288">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>46</v>
       </c>
@@ -4293,11 +4578,11 @@
       <c r="C289" t="s">
         <v>61</v>
       </c>
-      <c r="D289" t="n">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="290">
+      <c r="D289">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>47</v>
       </c>
@@ -4307,11 +4592,11 @@
       <c r="C290" t="s">
         <v>61</v>
       </c>
-      <c r="D290" t="n">
-        <v>194.0</v>
-      </c>
-    </row>
-    <row r="291">
+      <c r="D290">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>48</v>
       </c>
@@ -4321,11 +4606,11 @@
       <c r="C291" t="s">
         <v>61</v>
       </c>
-      <c r="D291" t="n">
-        <v>749.0</v>
-      </c>
-    </row>
-    <row r="292">
+      <c r="D291">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>49</v>
       </c>
@@ -4335,11 +4620,11 @@
       <c r="C292" t="s">
         <v>62</v>
       </c>
-      <c r="D292" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="293">
+      <c r="D292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>50</v>
       </c>
@@ -4349,11 +4634,11 @@
       <c r="C293" t="s">
         <v>62</v>
       </c>
-      <c r="D293" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="294">
+      <c r="D293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>51</v>
       </c>
@@ -4363,11 +4648,11 @@
       <c r="C294" t="s">
         <v>62</v>
       </c>
-      <c r="D294" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="295">
+      <c r="D294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>52</v>
       </c>
@@ -4377,11 +4662,11 @@
       <c r="C295" t="s">
         <v>62</v>
       </c>
-      <c r="D295" t="n">
-        <v>42.0</v>
+      <c r="D295">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>